--- a/biology/Zoologie/Hyperolius_argus/Hyperolius_argus.xlsx
+++ b/biology/Zoologie/Hyperolius_argus/Hyperolius_argus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyperolius argus est une espèce d'amphibiens de la famille des Hyperoliidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyperolius argus est une espèce d'amphibiens de la famille des Hyperoliidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre jusqu'à 300 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre jusqu'à 300 m d'altitude, :
 dans l'extrême Sud de la Somalie ;
 dans le sud du Kenya ;
 dans l'est de la Tanzanie ;
@@ -548,7 +562,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1854 : Diagnosen neuer Batrachier, welche zusammen mit der früher (24. Juli und 17. August) gegebenen Übersicht der Schlangen und Eidechsen mitgetheilt werden. Bericht über die zur Bekanntmachung geeigneten Verhandlungen der Königlich preussischen Akademie der Wissenschaften zu Berlin, vol. 1854, p. 614-628 (texte intégral).</t>
         </is>
